--- a/RESPON.xlsx
+++ b/RESPON.xlsx
@@ -167,8 +167,8 @@
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;Rp&quot;* #,##0.00_-;\-&quot;Rp&quot;* #,##0.00_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -197,9 +197,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,10 +294,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,7 +326,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,103 +334,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,13 +356,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,169 +506,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,22 +554,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,23 +562,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,19 +586,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,151 +636,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1073,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
